--- a/train_y_mensual.xlsx
+++ b/train_y_mensual.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B233"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2304,7 +2304,15 @@
         <v>45747</v>
       </c>
       <c r="B233" t="n">
-        <v>11.5</v>
+        <v>7.593548387096774</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B234" t="n">
+        <v>9.133333333333333</v>
       </c>
     </row>
   </sheetData>
